--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2679.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2679.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161249245454862</v>
+        <v>0.9112548232078552</v>
       </c>
       <c r="B1">
-        <v>2.420979847356923</v>
+        <v>1.142139673233032</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.653894901275635</v>
       </c>
       <c r="D1">
-        <v>2.330000741228461</v>
+        <v>4.647810935974121</v>
       </c>
       <c r="E1">
-        <v>1.213085133888244</v>
+        <v>2.620930433273315</v>
       </c>
     </row>
   </sheetData>
